--- a/df_scores.xlsx
+++ b/df_scores.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="all_scores" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mean_scores" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -468,27 +469,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.73 0.76 0.69 0.73 0.67 0.78 0.72 0.72 0.66 0.8 ]</t>
+          <t>[0.67 0.84 0.67 0.71 0.86 0.73 0.69 0.69 0.8  0.7 ]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.81 0.69 0.62 0.64 0.44 0.76 0.68 0.64 0.64 0.76]</t>
+          <t>[0.69 0.85 0.65 0.58 0.76 0.6  0.56 0.6  0.8  0.76]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.64 0.84 0.76 0.81 0.88 0.81 0.76 0.8  0.68 0.84]</t>
+          <t>[0.64 0.84 0.68 0.84 0.96 0.85 0.81 0.77 0.8  0.64]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.79 0.86 0.8  0.79 0.84 0.81 0.8  0.8  0.78 0.91]</t>
+          <t>[0.75 0.89 0.77 0.74 0.93 0.77 0.79 0.74 0.9  0.82]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.58 0.71 0.6  0.58 0.69 0.62 0.6  0.6  0.56 0.83]</t>
+          <t>[0.51 0.78 0.54 0.48 0.86 0.53 0.58 0.48 0.79 0.64]</t>
         </is>
       </c>
     </row>
@@ -500,27 +501,137 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.75 0.75 0.78 0.73 0.67 0.8  0.66 0.64 0.72 0.82]</t>
+          <t>[0.69 0.78 0.69 0.76 0.84 0.63 0.69 0.69 0.82 0.78]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.73 0.73 0.69 0.68 0.52 0.8  0.64 0.44 0.72 0.68]</t>
+          <t>[0.73 0.77 0.65 0.69 0.76 0.52 0.6  0.48 0.8  0.76]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.76 0.76 0.88 0.77 0.81 0.81 0.68 0.84 0.72 0.96]</t>
+          <t>[0.64 0.8  0.72 0.84 0.92 0.73 0.77 0.88 0.84 0.8 ]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.84 0.83 0.85 0.81 0.84 0.86 0.71 0.77 0.78 0.92]</t>
+          <t>[0.77 0.84 0.74 0.84 0.95 0.69 0.77 0.77 0.88 0.84]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.68 0.67 0.71 0.61 0.67 0.71 0.42 0.53 0.56 0.83]</t>
+          <t>[0.54 0.68 0.48 0.68 0.9  0.38 0.54 0.54 0.75 0.69]</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Sensitivity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Specificity</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Area under ROC-curve</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Gini index</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Model 1: Random Forest</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0.73 +/- 0.07</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.68 +/- 0.1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.78 +/- 0.1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.81 +/- 0.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.62 +/- 0.14</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Model 2: Support Vector Machine</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0.74 +/- 0.07</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.68 +/- 0.11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.79 +/- 0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.81 +/- 0.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.62 +/- 0.14</t>
         </is>
       </c>
     </row>

--- a/df_scores.xlsx
+++ b/df_scores.xlsx
@@ -469,27 +469,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0.67 0.84 0.67 0.71 0.86 0.73 0.69 0.69 0.8  0.7 ]</t>
+          <t>[0.69 0.86 0.71 0.69 0.76 0.71 0.69 0.73 0.78 0.72]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[0.69 0.85 0.65 0.58 0.76 0.6  0.56 0.6  0.8  0.76]</t>
+          <t>[0.77 0.85 0.73 0.65 0.64 0.6  0.6  0.76 0.76 0.8 ]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.64 0.84 0.68 0.84 0.96 0.85 0.81 0.77 0.8  0.64]</t>
+          <t>[0.6  0.88 0.68 0.72 0.88 0.81 0.77 0.69 0.8  0.64]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.75 0.89 0.77 0.74 0.93 0.77 0.79 0.74 0.9  0.82]</t>
+          <t>[0.79 0.91 0.82 0.75 0.94 0.76 0.76 0.76 0.86 0.83]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[0.51 0.78 0.54 0.48 0.86 0.53 0.58 0.48 0.79 0.64]</t>
+          <t>[0.57 0.81 0.65 0.5  0.87 0.53 0.52 0.52 0.73 0.65]</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0.69 0.78 0.69 0.76 0.84 0.63 0.69 0.69 0.82 0.78]</t>
+          <t>[0.73 0.75 0.65 0.75 0.88 0.63 0.67 0.69 0.82 0.74]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0.73 0.77 0.65 0.69 0.76 0.52 0.6  0.48 0.8  0.76]</t>
+          <t>[0.65 0.69 0.54 0.73 0.8  0.56 0.6  0.52 0.8  0.72]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.64 0.8  0.72 0.84 0.92 0.73 0.77 0.88 0.84 0.8 ]</t>
+          <t>[0.8  0.8  0.76 0.76 0.96 0.69 0.73 0.85 0.84 0.76]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.77 0.84 0.74 0.84 0.95 0.69 0.77 0.77 0.88 0.84]</t>
+          <t>[0.82 0.79 0.72 0.8  0.95 0.7  0.76 0.76 0.87 0.84]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[0.54 0.68 0.48 0.68 0.9  0.38 0.54 0.54 0.75 0.69]</t>
+          <t>[0.63 0.58 0.43 0.61 0.9  0.4  0.52 0.52 0.75 0.68]</t>
         </is>
       </c>
     </row>
@@ -579,27 +579,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.73 +/- 0.07</t>
+          <t>0.73 +/- 0.05</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.68 +/- 0.1</t>
+          <t>0.72 +/- 0.08</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.78 +/- 0.1</t>
+          <t>0.75 +/- 0.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.81 +/- 0.07</t>
+          <t>0.82 +/- 0.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.62 +/- 0.14</t>
+          <t>0.64 +/- 0.13</t>
         </is>
       </c>
     </row>
@@ -611,27 +611,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.74 +/- 0.07</t>
+          <t>0.73 +/- 0.07</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.68 +/- 0.11</t>
+          <t>0.66 +/- 0.1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.79 +/- 0.08</t>
+          <t>0.8 +/- 0.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.81 +/- 0.07</t>
+          <t>0.8 +/- 0.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.62 +/- 0.14</t>
+          <t>0.6 +/- 0.14</t>
         </is>
       </c>
     </row>
